--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2699473.239729169</v>
+        <v>-2702126.521259631</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89.12985772078963</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.41994504831916</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>74.08682336414034</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.6189877696317</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.95558184798582</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23.35772589727778</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.43919684076942</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>379.2486623567088</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4827461567866</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>97.27989568773788</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47758125341707</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833816</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2479,7 +2479,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652613</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352486</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541839</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652586</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,19 +4141,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4319,10 +4319,10 @@
         <v>141.276945881932</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>141.276945881932</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,13 +4331,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4389,19 +4389,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,13 +4410,13 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
         <v>1343.569531118698</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4522,16 +4522,16 @@
         <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.1586012949289</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C7" t="n">
-        <v>240.222418367022</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="D7" t="n">
-        <v>90.10577895468623</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>241.4557646696483</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>95.23857788750607</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125553</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.715926185141</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.715926185141</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868966</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189674</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1739.201569949316</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.434954518842</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.332087644485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>973.6475994385985</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5182,28 +5182,28 @@
         <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745236</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5416,13 +5416,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5601,7 +5601,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6124,34 +6124,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6452,40 +6452,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,19 +6634,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,10 +6783,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
@@ -6844,25 +6844,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,16 +6877,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184735</v>
+        <v>294.8344935184732</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>113.1600650151026</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>322.4178450521644</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22723,7 +22723,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>51.3406407157023</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>178.0508199596877</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823101</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1421655.708932696</v>
+        <v>1421655.708932695</v>
       </c>
     </row>
     <row r="9">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
-        <v>5.400124791776761e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31928.28153540093</v>
+        <v>31928.2815354009</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26433,28 +26433,28 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768868</v>
       </c>
       <c r="I4" t="n">
         <v>17938.00358486236</v>
       </c>
       <c r="J4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486233</v>
       </c>
       <c r="L4" t="n">
         <v>17938.00358486236</v>
       </c>
       <c r="M4" t="n">
+        <v>17938.00358486236</v>
+      </c>
+      <c r="N4" t="n">
         <v>17938.00358486237</v>
       </c>
-      <c r="N4" t="n">
-        <v>17938.00358486236</v>
-      </c>
       <c r="O4" t="n">
-        <v>17938.00358486243</v>
+        <v>17938.00358486235</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1239617.837551165</v>
+        <v>-1240082.13434319</v>
       </c>
       <c r="C6" t="n">
-        <v>-400506.8612666192</v>
+        <v>-400506.8612666193</v>
       </c>
       <c r="D6" t="n">
         <v>-197068.1196545135</v>
       </c>
       <c r="E6" t="n">
-        <v>-436482.1359530308</v>
+        <v>-436516.8738784671</v>
       </c>
       <c r="F6" t="n">
-        <v>-111069.674145676</v>
+        <v>-111104.4120711117</v>
       </c>
       <c r="G6" t="n">
-        <v>-111069.674145676</v>
+        <v>-111104.4120711117</v>
       </c>
       <c r="H6" t="n">
-        <v>-111069.674145676</v>
+        <v>-111104.4120711117</v>
       </c>
       <c r="I6" t="n">
         <v>-140529.8374324095</v>
       </c>
       <c r="J6" t="n">
-        <v>-288707.2972487604</v>
+        <v>-288707.2972487602</v>
       </c>
       <c r="K6" t="n">
-        <v>-170212.2121448322</v>
+        <v>-170212.2121448323</v>
       </c>
       <c r="L6" t="n">
-        <v>-121102.1194387777</v>
+        <v>-121102.1194387778</v>
       </c>
       <c r="M6" t="n">
-        <v>-206157.1473742895</v>
+        <v>-206157.1473742896</v>
       </c>
       <c r="N6" t="n">
         <v>-140529.8374324095</v>
       </c>
       <c r="O6" t="n">
-        <v>-121102.1194387779</v>
+        <v>-121102.1194387778</v>
       </c>
       <c r="P6" t="n">
         <v>-121102.1194387778</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26808,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>293.7159807266088</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>277.5986075140862</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.45595448819827</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.06405385105126</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2823568080678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.0762367492914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>67.91322356906866</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.485179306771727</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39329958492488</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>92.48912964370402</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.2320741356201</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,28 +31847,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.267838362267</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,28 +32084,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832331</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362267</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,22 +34784,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420058</v>
+        <v>544.5140226420056</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402486</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998998</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36525,7 +36525,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
         <v>397.5465471980852</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402486</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
